--- a/somar_ideias.xlsx
+++ b/somar_ideias.xlsx
@@ -734,8 +734,8 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
+    <TaxCatchAll xmlns="d1db3d2a-5895-43d6-a975-46fa68ca752e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="faa20ac1-f4f3-4dff-a8e1-35fb31521685">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -752,29 +752,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002A76BE3EC65CB949A388A0006AFBA350" ma:contentTypeVersion="14" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="12d2b671dc11efdd8b011f1a12bd546d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cfdc422-4535-48e1-a7d6-54c46d46b3db" xmlns:ns3="fd004d49-9b54-446a-bd24-b27319634c19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="700d5dfc38fcea7e0185f85e8ac1c034" ns2:_="" ns3:_="">
-    <xsd:import namespace="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
-    <xsd:import namespace="fd004d49-9b54-446a-bd24-b27319634c19"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C60396163D896849A1ADAFA5FD368BD9" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="143c616b443e0b557df476a61df85ad9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1db3d2a-5895-43d6-a975-46fa68ca752e" xmlns:ns3="faa20ac1-f4f3-4dff-a8e1-35fb31521685" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85fd3773762e1072c73b03d1263b9dc1" ns2:_="" ns3:_="">
+    <xsd:import namespace="d1db3d2a-5895-43d6-a975-46fa68ca752e"/>
+    <xsd:import namespace="faa20ac1-f4f3-4dff-a8e1-35fb31521685"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -782,79 +784,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6cfdc422-4535-48e1-a7d6-54c46d46b3db" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1db3d2a-5895-43d6-a975-46fa68ca752e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de Imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fb452c2c-4b83-4bd7-882d-26a525314b91" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fd004d49-9b54-446a-bd24-b27319634c19" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{37fec862-47ec-47d2-a434-5d67d3fb44cb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="fd004d49-9b54-446a-bd24-b27319634c19">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -873,11 +806,90 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8f9bfb47-25d8-4f7f-92b9-9a294c06e699}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1db3d2a-5895-43d6-a975-46fa68ca752e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="faa20ac1-f4f3-4dff-a8e1-35fb31521685" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fb452c2c-4b83-4bd7-882d-26a525314b91" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1000,5 +1012,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DDBE498-42AE-4342-8373-C6B2754802B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C45E2-3A0B-4AC4-83BB-82A197547ECD}"/>
 </file>